--- a/time_compare.xlsx
+++ b/time_compare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNTT\Nam_5\Final_project\FinalProjectSlide\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -179,7 +179,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -192,7 +192,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
               <a:t>R = 25</a:t>
             </a:r>
           </a:p>
@@ -212,7 +212,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -431,7 +431,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -490,7 +490,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -533,7 +533,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -607,7 +607,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -620,7 +620,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
               <a:t>R = 30</a:t>
             </a:r>
           </a:p>
@@ -640,7 +640,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -859,7 +859,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -918,7 +918,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -961,7 +961,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1035,7 +1035,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1048,7 +1048,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
               <a:t>R = 45</a:t>
             </a:r>
           </a:p>
@@ -1068,7 +1068,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1287,7 +1287,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1346,7 +1346,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1389,7 +1389,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1463,7 +1463,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1476,7 +1476,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
               <a:t>R = 50</a:t>
             </a:r>
           </a:p>
@@ -1496,7 +1496,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1715,7 +1715,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1774,7 +1774,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1817,7 +1817,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4448,7 +4448,7 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9643,7 +9643,7 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9731,7 +9731,7 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9820,7 +9820,7 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
